--- a/jett-core/templates/StyleTagTemplate.xlsx
+++ b/jett-core/templates/StyleTagTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="11565" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="alignment" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -623,9 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -677,7 +675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/jett-core/templates/StyleTagTemplate.xlsx
+++ b/jett-core/templates/StyleTagTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="11565"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="11565" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="alignment" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="font-color-charset" sheetId="11" r:id="rId11"/>
     <sheet name="font-strikeout-offset-underline" sheetId="12" r:id="rId12"/>
     <sheet name="width-height" sheetId="13" r:id="rId13"/>
+    <sheet name="class only" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>&lt;jt:forEach items="${alignments}" var="alignment"&gt;&lt;jt:style style="alignment: ${alignment}"&gt;Alignment: ${alignment}&lt;/jt:style&gt;&lt;/jt:forEach&gt;</t>
   </si>
@@ -107,6 +108,21 @@
   </si>
   <si>
     <t>&lt;jt:forEach items="${heights}" var="height"&gt;&lt;jt:style style="row-height-in-points: ${height}"&gt;row-height-in-points: ${height}&lt;/jt:style&gt;&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:style class="redBoxCenter"&gt;redBoxCenter&lt;/jt:style&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:style class="doesNotExist"&gt;doesNotExist&lt;/jt:style&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:style class="blueBoldBigText"&gt;blueBoldBigText&lt;/jt:style&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:style class="blueBoldBigText" style="font-color: green; font-weight: normal; font-italic: true"&gt;blueBoldBigText with green non-bold italic&lt;/jt:style&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:style class="redBoxCenter; blueBoldBigText"&gt;redBoxCenter; blueBoldBigText&lt;/jt:style&gt;</t>
   </si>
 </sst>
 </file>
@@ -463,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -569,6 +585,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
